--- a/测试用例文档.xlsx
+++ b/测试用例文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TicTacToe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8807832-E44A-4069-B5D1-E695CEEF8C72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D084AB-F4E0-4224-BF82-0F753F93FDE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="107">
   <si>
     <t>在此处概述本测试用例</t>
   </si>
@@ -1554,6 +1554,204 @@
     <t>曹修远</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>CheckInput.checkInput()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试检查输入合法性函数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用getInput()获得了键盘输入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetMove.getMove()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试能否对合法的键盘输入作出正确的响应</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>getInput()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得了键盘输入，并且使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>checkInput()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行了合法性检查的合法键盘输入</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1,1"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2,1"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2,2"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3,3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘输入"1,1"，并点击回车</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘输入"2,1"，并点击回车</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘输入"2,2"，并点击回车</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘输入"3,3"，并点击回车</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数返回数组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>{1,0,0}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数返回数组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>{0,0,0}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数返回数组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>{0,1,0}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数返回数组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>{0,1,1}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数返回数组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>{0,,2,2}</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1909,7 +2107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2024,6 +2222,22 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2042,20 +2256,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2863,7 +3069,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="12">
         <f>65535-COUNTBLANK('Test Cases测试用例'!A:A)</f>
-        <v>-983035</v>
+        <v>-983025</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -3100,12 +3306,12 @@
       <c r="K24" s="11"/>
     </row>
     <row r="26" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B27" s="41" t="s">
@@ -3181,12 +3387,12 @@
       <c r="B32" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="52">
         <f>E11</f>
-        <v>-983035</v>
+        <v>-983025</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3208,8 +3414,8 @@
   </sheetPr>
   <dimension ref="A1:EJ12389"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3404,409 +3610,659 @@
       <c r="EJ1" s="28"/>
     </row>
     <row r="2" spans="1:140" ht="43.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="N2" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="47" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:140" ht="43.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
+      <c r="A3" s="46">
         <v>2</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="52" t="s">
+      <c r="M3" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="O3" s="47" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:140" ht="43.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="30">
+      <c r="A4" s="46">
         <v>3</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="L4" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="M4" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="53" t="s">
+      <c r="N4" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="53" t="s">
+      <c r="O4" s="47" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:140" ht="43.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
+      <c r="A5" s="46">
         <v>4</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="53" t="s">
+      <c r="O5" s="47" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:140" ht="43.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
+      <c r="A6" s="46">
         <v>5</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M6" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="53" t="s">
+      <c r="O6" s="47" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+    <row r="7" spans="1:140" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="46">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>90</v>
+      </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="L7" s="47" t="s">
+        <v>85</v>
+      </c>
       <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-    </row>
-    <row r="8" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="N7" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:140" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="46">
+        <v>7</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>90</v>
+      </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
+      <c r="L8" s="47" t="s">
+        <v>85</v>
+      </c>
       <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="N8" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:140" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="46">
+        <v>8</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>90</v>
+      </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="L9" s="47" t="s">
+        <v>85</v>
+      </c>
       <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="N9" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:140" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="46">
+        <v>9</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>90</v>
+      </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
+      <c r="L10" s="47" t="s">
+        <v>85</v>
+      </c>
       <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="N10" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:140" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="46">
+        <v>10</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>90</v>
+      </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="L11" s="47" t="s">
+        <v>85</v>
+      </c>
       <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-    </row>
-    <row r="12" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-    </row>
-    <row r="14" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-    </row>
-    <row r="15" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-    </row>
-    <row r="16" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
+      <c r="N11" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="O11" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:140" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="46">
+        <v>11</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:140" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="46">
+        <v>12</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:140" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="46">
+        <v>13</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:140" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="46">
+        <v>14</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:140" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="46">
+        <v>15</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="N16" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="O16" s="47" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>

--- a/测试用例文档.xlsx
+++ b/测试用例文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TicTacToe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D084AB-F4E0-4224-BF82-0F753F93FDE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCC3C68-B62E-4848-9024-A001E5623895}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="121">
   <si>
     <t>在此处概述本测试用例</t>
   </si>
@@ -1752,6 +1752,263 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Junit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数化测试</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2,2"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"assda"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1,3"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3,6"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，"2"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，"2,2"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>assda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，"1,3"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，"3,6"</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1761,7 +2018,7 @@
     <numFmt numFmtId="176" formatCode="yy\.mm\.dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -1887,6 +2144,12 @@
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
       <family val="1"/>
       <charset val="134"/>
     </font>
@@ -2238,6 +2501,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2255,14 +2526,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3306,12 +3569,12 @@
       <c r="K24" s="11"/>
     </row>
     <row r="26" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
     </row>
     <row r="27" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B27" s="41" t="s">
@@ -3387,12 +3650,12 @@
       <c r="B32" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="54">
         <f>E11</f>
         <v>-983025</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3414,8 +3677,8 @@
   </sheetPr>
   <dimension ref="A1:EJ12389"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3866,14 +4129,24 @@
       <c r="G7" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="H7" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>118</v>
+      </c>
       <c r="L7" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="30"/>
+      <c r="M7" s="46" t="s">
+        <v>107</v>
+      </c>
       <c r="N7" s="47" t="s">
         <v>87</v>
       </c>
@@ -3903,14 +4176,24 @@
       <c r="G8" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="H8" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>119</v>
+      </c>
       <c r="L8" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="30"/>
+      <c r="M8" s="46" t="s">
+        <v>107</v>
+      </c>
       <c r="N8" s="47" t="s">
         <v>87</v>
       </c>
@@ -3940,14 +4223,24 @@
       <c r="G9" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
+      <c r="H9" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>118</v>
+      </c>
       <c r="L9" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="30"/>
+      <c r="M9" s="46" t="s">
+        <v>107</v>
+      </c>
       <c r="N9" s="47" t="s">
         <v>87</v>
       </c>
@@ -3977,14 +4270,24 @@
       <c r="G10" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="H10" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>118</v>
+      </c>
       <c r="L10" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="30"/>
+      <c r="M10" s="46" t="s">
+        <v>107</v>
+      </c>
       <c r="N10" s="47" t="s">
         <v>87</v>
       </c>
@@ -4014,14 +4317,24 @@
       <c r="G11" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="H11" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>120</v>
+      </c>
       <c r="L11" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="30"/>
+      <c r="M11" s="46" t="s">
+        <v>107</v>
+      </c>
       <c r="N11" s="47" t="s">
         <v>87</v>
       </c>
@@ -4051,10 +4364,10 @@
       <c r="G12" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="50" t="s">
         <v>75</v>
       </c>
       <c r="J12" s="48" t="s">
@@ -4101,7 +4414,7 @@
       <c r="H13" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="50" t="s">
         <v>98</v>
       </c>
       <c r="J13" s="48" t="s">
@@ -4148,7 +4461,7 @@
       <c r="H14" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="50" t="s">
         <v>99</v>
       </c>
       <c r="J14" s="48" t="s">
@@ -4195,7 +4508,7 @@
       <c r="H15" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="50" t="s">
         <v>100</v>
       </c>
       <c r="J15" s="48" t="s">
@@ -4242,7 +4555,7 @@
       <c r="H16" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="I16" s="56" t="s">
+      <c r="I16" s="50" t="s">
         <v>101</v>
       </c>
       <c r="J16" s="48" t="s">

--- a/测试用例文档.xlsx
+++ b/测试用例文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TicTacToe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCC3C68-B62E-4848-9024-A001E5623895}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D02D8B8-D4E3-486F-A10D-71E2FFD6AB9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="122">
   <si>
     <t>在此处概述本测试用例</t>
   </si>
@@ -2009,6 +2009,10 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>UT-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3164,7 +3168,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" showOutlineSymbols="0" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView showGridLines="0" showOutlineSymbols="0" topLeftCell="A7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -3678,7 +3682,7 @@
   <dimension ref="A1:EJ12389"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3873,8 +3877,8 @@
       <c r="EJ1" s="28"/>
     </row>
     <row r="2" spans="1:140" ht="43.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="46">
-        <v>1</v>
+      <c r="A2" s="46" t="s">
+        <v>121</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>65</v>

--- a/测试用例文档.xlsx
+++ b/测试用例文档.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TicTacToe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\作业\软件测试\实践作业二\TicTacToe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D02D8B8-D4E3-486F-A10D-71E2FFD6AB9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E748CBAA-09A6-44C8-9436-81D80024583A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information文档信息" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,12 @@
   <definedNames>
     <definedName name="Result">'Test Cases测试用例'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2018,9 +2019,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yy\.mm\.dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\.mm\.dd"/>
+    <numFmt numFmtId="178" formatCode="\U\T\-General"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -2374,7 +2376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2530,6 +2532,20 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3681,13 +3697,13 @@
   </sheetPr>
   <dimension ref="A1:EJ12389"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" style="60" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" style="31" customWidth="1"/>
     <col min="3" max="3" width="15.81640625" style="31" customWidth="1"/>
     <col min="4" max="4" width="13.90625" style="31" bestFit="1" customWidth="1"/>
@@ -3705,7 +3721,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:140" ht="63" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="37" t="s">
@@ -3877,7 +3893,7 @@
       <c r="EJ1" s="28"/>
     </row>
     <row r="2" spans="1:140" ht="43.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="58" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="46" t="s">
@@ -3924,7 +3940,7 @@
       </c>
     </row>
     <row r="3" spans="1:140" ht="43.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="46">
+      <c r="A3" s="58">
         <v>2</v>
       </c>
       <c r="B3" s="46" t="s">
@@ -3971,7 +3987,7 @@
       </c>
     </row>
     <row r="4" spans="1:140" ht="43.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="46">
+      <c r="A4" s="58">
         <v>3</v>
       </c>
       <c r="B4" s="46" t="s">
@@ -4018,7 +4034,7 @@
       </c>
     </row>
     <row r="5" spans="1:140" ht="43.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="46">
+      <c r="A5" s="58">
         <v>4</v>
       </c>
       <c r="B5" s="46" t="s">
@@ -4065,7 +4081,7 @@
       </c>
     </row>
     <row r="6" spans="1:140" ht="43.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
+      <c r="A6" s="58">
         <v>5</v>
       </c>
       <c r="B6" s="46" t="s">
@@ -4112,7 +4128,7 @@
       </c>
     </row>
     <row r="7" spans="1:140" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="46">
+      <c r="A7" s="58">
         <v>6</v>
       </c>
       <c r="B7" s="46" t="s">
@@ -4159,7 +4175,7 @@
       </c>
     </row>
     <row r="8" spans="1:140" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="46">
+      <c r="A8" s="58">
         <v>7</v>
       </c>
       <c r="B8" s="46" t="s">
@@ -4206,7 +4222,7 @@
       </c>
     </row>
     <row r="9" spans="1:140" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="46">
+      <c r="A9" s="58">
         <v>8</v>
       </c>
       <c r="B9" s="46" t="s">
@@ -4253,7 +4269,7 @@
       </c>
     </row>
     <row r="10" spans="1:140" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="46">
+      <c r="A10" s="58">
         <v>9</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -4300,7 +4316,7 @@
       </c>
     </row>
     <row r="11" spans="1:140" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="46">
+      <c r="A11" s="58">
         <v>10</v>
       </c>
       <c r="B11" s="46" t="s">
@@ -4347,7 +4363,7 @@
       </c>
     </row>
     <row r="12" spans="1:140" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="46">
+      <c r="A12" s="58">
         <v>11</v>
       </c>
       <c r="B12" s="46" t="s">
@@ -4394,7 +4410,7 @@
       </c>
     </row>
     <row r="13" spans="1:140" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="46">
+      <c r="A13" s="58">
         <v>12</v>
       </c>
       <c r="B13" s="46" t="s">
@@ -4441,7 +4457,7 @@
       </c>
     </row>
     <row r="14" spans="1:140" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="46">
+      <c r="A14" s="58">
         <v>13</v>
       </c>
       <c r="B14" s="46" t="s">
@@ -4488,7 +4504,7 @@
       </c>
     </row>
     <row r="15" spans="1:140" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="46">
+      <c r="A15" s="58">
         <v>14</v>
       </c>
       <c r="B15" s="46" t="s">
@@ -4535,7 +4551,7 @@
       </c>
     </row>
     <row r="16" spans="1:140" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="46">
+      <c r="A16" s="58">
         <v>15</v>
       </c>
       <c r="B16" s="46" t="s">
@@ -4582,7 +4598,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -4599,7 +4615,7 @@
       <c r="O17" s="30"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -4616,7 +4632,7 @@
       <c r="O18" s="30"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -4633,7 +4649,7 @@
       <c r="O19" s="30"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -4650,7 +4666,7 @@
       <c r="O20" s="30"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -4667,7 +4683,7 @@
       <c r="O21" s="30"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -4684,7 +4700,7 @@
       <c r="O22" s="30"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -4701,7 +4717,7 @@
       <c r="O23" s="30"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -4718,7 +4734,7 @@
       <c r="O24" s="30"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -4735,7 +4751,7 @@
       <c r="O25" s="30"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -4752,7 +4768,7 @@
       <c r="O26" s="30"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -4769,7 +4785,7 @@
       <c r="O27" s="30"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -4786,7 +4802,7 @@
       <c r="O28" s="30"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -4803,7 +4819,7 @@
       <c r="O29" s="30"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
@@ -4820,7 +4836,7 @@
       <c r="O30" s="30"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -4837,7 +4853,7 @@
       <c r="O31" s="30"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
@@ -4854,7 +4870,7 @@
       <c r="O32" s="30"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -4871,7 +4887,7 @@
       <c r="O33" s="30"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
@@ -4888,7 +4904,7 @@
       <c r="O34" s="30"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
@@ -4905,7 +4921,7 @@
       <c r="O35" s="30"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -4922,7 +4938,7 @@
       <c r="O36" s="30"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -4939,7 +4955,7 @@
       <c r="O37" s="30"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -4956,7 +4972,7 @@
       <c r="O38" s="30"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
@@ -4973,7 +4989,7 @@
       <c r="O39" s="30"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
@@ -4990,7 +5006,7 @@
       <c r="O40" s="30"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
@@ -5007,7 +5023,7 @@
       <c r="O41" s="30"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
@@ -5024,7 +5040,7 @@
       <c r="O42" s="30"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
@@ -5041,7 +5057,7 @@
       <c r="O43" s="30"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="30"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
@@ -5058,7 +5074,7 @@
       <c r="O44" s="30"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
@@ -5075,7 +5091,7 @@
       <c r="O45" s="30"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
@@ -5092,7 +5108,7 @@
       <c r="O46" s="30"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
@@ -5109,7 +5125,7 @@
       <c r="O47" s="30"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -5126,7 +5142,7 @@
       <c r="O48" s="30"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
@@ -5143,7 +5159,7 @@
       <c r="O49" s="30"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="30"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="30"/>
@@ -5160,7 +5176,7 @@
       <c r="O50" s="30"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="30"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="30"/>
@@ -5177,7 +5193,7 @@
       <c r="O51" s="30"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="30"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
       <c r="D52" s="30"/>
@@ -5194,7 +5210,7 @@
       <c r="O52" s="30"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="30"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
@@ -5211,7 +5227,7 @@
       <c r="O53" s="30"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
@@ -5228,7 +5244,7 @@
       <c r="O54" s="30"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="30"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
@@ -5245,7 +5261,7 @@
       <c r="O55" s="30"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="30"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="30"/>
@@ -5262,7 +5278,7 @@
       <c r="O56" s="30"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="30"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="30"/>
@@ -5279,7 +5295,7 @@
       <c r="O57" s="30"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="30"/>
@@ -5296,7 +5312,7 @@
       <c r="O58" s="30"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="30"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -5313,7 +5329,7 @@
       <c r="O59" s="30"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="30"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="30"/>
@@ -5330,7 +5346,7 @@
       <c r="O60" s="30"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
       <c r="D61" s="30"/>
@@ -5347,7 +5363,7 @@
       <c r="O61" s="30"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="30"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="30"/>
@@ -5364,7 +5380,7 @@
       <c r="O62" s="30"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="30"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="30"/>
@@ -5381,7 +5397,7 @@
       <c r="O63" s="30"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="30"/>
+      <c r="A64" s="59"/>
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
       <c r="D64" s="30"/>
@@ -5398,7 +5414,7 @@
       <c r="O64" s="30"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="30"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="30"/>
       <c r="C65" s="30"/>
       <c r="D65" s="30"/>
@@ -5415,7 +5431,7 @@
       <c r="O65" s="30"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="30"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>
       <c r="D66" s="30"/>

--- a/测试用例文档.xlsx
+++ b/测试用例文档.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TicTacToe\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458E0114-B1EA-4248-A735-A3E9B98A1784}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9936" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information文档信息" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,19 @@
   <definedNames>
     <definedName name="Result">'Test Cases测试用例'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="218">
   <si>
     <r>
       <rPr>
@@ -933,40 +946,6 @@
     <t>通过</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Junit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数化测试，使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>System.SetIn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重定向输入流</t>
-    </r>
-  </si>
-  <si>
     <t>曹修远</t>
   </si>
   <si>
@@ -1119,24 +1098,6 @@
         <family val="1"/>
       </rPr>
       <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Junit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数化测试</t>
     </r>
   </si>
   <si>
@@ -5863,17 +5824,176 @@
     <t>UT-35</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Junit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数化测试，使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>System.SetIn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重定向输入流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑覆盖</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Junit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数化测试，使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>System.SetIn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重定向输入流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑覆盖</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Junit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数化测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑覆盖</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Junit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数化测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑覆盖</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="\U\T\-General"/>
-    <numFmt numFmtId="179" formatCode="yyyy\.mm\.dd"/>
-    <numFmt numFmtId="180" formatCode="yy\.mm\.dd"/>
+    <numFmt numFmtId="176" formatCode="\U\T\-General"/>
+    <numFmt numFmtId="177" formatCode="yyyy\.mm\.dd"/>
+    <numFmt numFmtId="178" formatCode="yy\.mm\.dd"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -5996,6 +6116,12 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -6233,14 +6359,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6252,7 +6378,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -6268,7 +6394,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -6333,7 +6459,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
@@ -6341,7 +6467,7 @@
       <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
@@ -6367,6 +6493,10 @@
     </xf>
     <xf numFmtId="10" fontId="15" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6385,10 +6515,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6404,12 +6530,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -6493,6 +6622,11 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8EC8-4073-B5FD-55267D364C59}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6505,6 +6639,11 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8EC8-4073-B5FD-55267D364C59}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6517,6 +6656,11 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8EC8-4073-B5FD-55267D364C59}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -6529,6 +6673,11 @@
                 <a:noFill/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8EC8-4073-B5FD-55267D364C59}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -6571,6 +6720,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8EC8-4073-B5FD-55267D364C59}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6691,7 +6845,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2055" name="图表 1" hidden="1"/>
+        <xdr:cNvPr id="2055" name="图表 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6966,7 +7126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" showOutlineSymbols="0" topLeftCell="A7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
@@ -7374,12 +7534,12 @@
       <c r="K24" s="33"/>
     </row>
     <row r="26" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
     </row>
     <row r="27" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B27" s="43" t="s">
@@ -7455,12 +7615,12 @@
       <c r="B32" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="59">
         <f>E11</f>
         <v>-983005</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7469,21 +7629,21 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:EJ12390"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7715,13 +7875,13 @@
         <v>62</v>
       </c>
       <c r="M2" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="O2" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:140" ht="43.8" x14ac:dyDescent="0.3">
@@ -7747,28 +7907,28 @@
         <v>58</v>
       </c>
       <c r="H3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="J3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="K3" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M3" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="N3" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="O3" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:140" ht="43.8" x14ac:dyDescent="0.3">
@@ -7794,28 +7954,28 @@
         <v>58</v>
       </c>
       <c r="H4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="J4" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>70</v>
-      </c>
       <c r="K4" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L4" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M4" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="N4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="O4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:140" ht="43.8" x14ac:dyDescent="0.3">
@@ -7841,28 +8001,28 @@
         <v>58</v>
       </c>
       <c r="H5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="J5" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>73</v>
-      </c>
       <c r="K5" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L5" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M5" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="N5" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="O5" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:140" ht="43.8" x14ac:dyDescent="0.3">
@@ -7888,39 +8048,39 @@
         <v>58</v>
       </c>
       <c r="H6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="J6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>76</v>
-      </c>
       <c r="K6" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L6" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M6" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="N6" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="O6" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:140" ht="28.8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:140" ht="30" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>56</v>
@@ -7932,31 +8092,31 @@
         <v>57</v>
       </c>
       <c r="G7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="I7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="J7" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="K7" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L7" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:140" ht="28.8" x14ac:dyDescent="0.3">
@@ -7964,10 +8124,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>77</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>56</v>
@@ -7979,31 +8139,31 @@
         <v>57</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>86</v>
-      </c>
       <c r="K8" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:140" ht="28.8" x14ac:dyDescent="0.3">
@@ -8011,10 +8171,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>56</v>
@@ -8026,31 +8186,31 @@
         <v>57</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L9" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:140" ht="28.8" x14ac:dyDescent="0.3">
@@ -8058,10 +8218,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>77</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>56</v>
@@ -8073,31 +8233,31 @@
         <v>57</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L10" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:140" ht="28.8" x14ac:dyDescent="0.3">
@@ -8105,10 +8265,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>77</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>56</v>
@@ -8120,31 +8280,31 @@
         <v>57</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>92</v>
-      </c>
       <c r="K11" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:140" ht="86.4" x14ac:dyDescent="0.3">
@@ -8152,10 +8312,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>56</v>
@@ -8167,7 +8327,7 @@
         <v>57</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>59</v>
@@ -8176,22 +8336,22 @@
         <v>60</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L12" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M12" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="N12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="O12" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:140" ht="86.4" x14ac:dyDescent="0.3">
@@ -8199,10 +8359,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>56</v>
@@ -8214,31 +8374,31 @@
         <v>57</v>
       </c>
       <c r="G13" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="I13" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>99</v>
-      </c>
       <c r="K13" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L13" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M13" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="N13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N13" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="O13" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:140" ht="86.4" x14ac:dyDescent="0.3">
@@ -8246,10 +8406,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>56</v>
@@ -8261,31 +8421,31 @@
         <v>57</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H14" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>102</v>
-      </c>
       <c r="K14" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L14" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M14" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="N14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N14" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="O14" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:140" ht="86.4" x14ac:dyDescent="0.3">
@@ -8293,10 +8453,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>56</v>
@@ -8308,31 +8468,31 @@
         <v>57</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L15" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M15" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="N15" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="O15" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:140" ht="86.4" x14ac:dyDescent="0.3">
@@ -8340,10 +8500,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>56</v>
@@ -8355,42 +8515,42 @@
         <v>57</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L16" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M16" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="N16" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="O16" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>56</v>
@@ -8402,42 +8562,42 @@
         <v>57</v>
       </c>
       <c r="G17" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="J17" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>113</v>
-      </c>
       <c r="K17" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L17" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>56</v>
@@ -8449,42 +8609,42 @@
         <v>57</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H18" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>119</v>
-      </c>
       <c r="K18" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L18" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>56</v>
@@ -8496,42 +8656,42 @@
         <v>57</v>
       </c>
       <c r="G19" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>112</v>
-      </c>
       <c r="J19" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L19" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>56</v>
@@ -8543,42 +8703,42 @@
         <v>57</v>
       </c>
       <c r="G20" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="J20" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>126</v>
       </c>
       <c r="L20" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>56</v>
@@ -8590,42 +8750,42 @@
         <v>57</v>
       </c>
       <c r="G21" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="J21" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="L21" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>56</v>
@@ -8637,42 +8797,42 @@
         <v>57</v>
       </c>
       <c r="G22" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="J22" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>134</v>
       </c>
       <c r="L22" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>56</v>
@@ -8684,42 +8844,42 @@
         <v>57</v>
       </c>
       <c r="G23" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="J23" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="L23" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>56</v>
@@ -8731,42 +8891,42 @@
         <v>57</v>
       </c>
       <c r="G24" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="J24" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>142</v>
       </c>
       <c r="L24" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>56</v>
@@ -8778,42 +8938,42 @@
         <v>57</v>
       </c>
       <c r="G25" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="J25" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>146</v>
       </c>
       <c r="L25" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>56</v>
@@ -8825,501 +8985,501 @@
         <v>57</v>
       </c>
       <c r="G26" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="J26" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>150</v>
       </c>
       <c r="L26" s="17" t="s">
         <v>62</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="56.4" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B27" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="61" t="s">
+      <c r="I27" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="J27" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="I27" s="61" t="s">
+      <c r="K27" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="L27" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="J27" s="61" t="s">
+      <c r="N27" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="K27" s="61" t="s">
+      <c r="O27" s="55" t="s">
         <v>165</v>
-      </c>
-      <c r="L27" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="N27" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="O27" s="61" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="56.4" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="D28" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="61" t="s">
+      <c r="F28" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="I28" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="J28" s="61" t="s">
+      <c r="J28" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="L28" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="N28" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="K28" s="61" t="s">
+      <c r="O28" s="55" t="s">
         <v>165</v>
-      </c>
-      <c r="L28" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="M28" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="N28" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="O28" s="61" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="56.4" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="61" t="s">
+      <c r="G29" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="H29" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I29" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="J29" s="61" t="s">
+      <c r="J29" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="L29" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="M29" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="N29" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="K29" s="61" t="s">
+      <c r="O29" s="55" t="s">
         <v>165</v>
-      </c>
-      <c r="L29" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="M29" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="N29" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="O29" s="61" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="56.4" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="D30" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="61" t="s">
+      <c r="F30" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="H30" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="I30" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="J30" s="61" t="s">
+      <c r="J30" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="L30" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="M30" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="N30" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="61" t="s">
+      <c r="O30" s="55" t="s">
         <v>165</v>
-      </c>
-      <c r="L30" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="M30" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="N30" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="O30" s="61" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="56.4" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="D31" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="61" t="s">
+      <c r="G31" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="J31" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="I31" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="J31" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="K31" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="L31" s="61" t="s">
+      <c r="K31" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="L31" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="M31" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="N31" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="O31" s="61" t="s">
-        <v>167</v>
+      <c r="M31" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="N31" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="O31" s="55" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="56.4" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="D32" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="61" t="s">
+      <c r="G32" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I32" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="J32" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="I32" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="J32" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="K32" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="L32" s="61" t="s">
+      <c r="K32" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="L32" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="M32" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="N32" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="O32" s="61" t="s">
-        <v>167</v>
+      <c r="M32" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="N32" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="O32" s="55" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="56.4" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="61" t="s">
+      <c r="F33" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="61" t="s">
+      <c r="G33" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="I33" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="H33" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I33" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="J33" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="K33" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="L33" s="61" t="s">
+      <c r="J33" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="K33" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="L33" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="M33" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="N33" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="O33" s="61" t="s">
-        <v>167</v>
+      <c r="M33" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="N33" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="O33" s="55" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="56.4" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="D34" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="61" t="s">
+      <c r="F34" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="61" t="s">
+      <c r="G34" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I34" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="H34" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="I34" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="J34" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="K34" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="L34" s="61" t="s">
+      <c r="J34" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="K34" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="L34" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="M34" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="N34" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="O34" s="61" t="s">
-        <v>167</v>
+      <c r="M34" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="N34" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="O34" s="55" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="56.4" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="D35" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="61" t="s">
+      <c r="F35" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="61" t="s">
+      <c r="G35" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="I35" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="J35" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="I35" s="61" t="s">
+      <c r="K35" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="L35" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="M35" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="J35" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="K35" s="61" t="s">
+      <c r="N35" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="L35" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="M35" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="N35" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="O35" s="61" t="s">
-        <v>167</v>
+      <c r="O35" s="55" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="56.4" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="D36" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="61" t="s">
+      <c r="F36" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="61" t="s">
+      <c r="G36" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="I36" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="J36" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="I36" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="J36" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="K36" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="L36" s="61" t="s">
+      <c r="K36" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="L36" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="M36" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="N36" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="O36" s="61" t="s">
-        <v>167</v>
+      <c r="M36" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="N36" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="O36" s="55" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -59145,10 +59305,10 @@
   <sheetProtection formatCells="0"/>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 M18 L19 M19 L20 M20 L21 M21 L22 M22 L23 M23 L24 M24 L25 M25 L26 M26 L2:M17 L27:M12390">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 M18 L19 M19 L20 M20 L21 M21 L22 M22 L23 M23 L24 M24 L25 M25 L26 M26 L2:M17 L27:M12390" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Result</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L12391:M65537">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L12391:M65537" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -59159,7 +59319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showOutlineSymbols="0" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
@@ -59175,7 +59335,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -59185,7 +59345,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -59194,7 +59354,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -59203,7 +59363,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -59212,7 +59372,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -59221,7 +59381,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -59230,7 +59390,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -59239,7 +59399,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -59248,7 +59408,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -59257,7 +59417,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/测试用例文档.xlsx
+++ b/测试用例文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TicTacToe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458E0114-B1EA-4248-A735-A3E9B98A1784}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544E9840-C1FC-4D34-9686-04CF6C4B9CD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="252">
   <si>
     <r>
       <rPr>
@@ -5983,6 +5983,359 @@
     </r>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <t>v2.GameSystem.chooseMode()</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1"</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2"</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3"</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>"exit"</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>"123456"</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，输出"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>Input error!
+Please re-enter'</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>123456</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Input error!
+Please re-enter"</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹修远</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-36</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试模式选择功能</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘输入"1"并点击回车</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价类测试、逻辑覆盖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹修远</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-37</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘输入"2"并点击回车</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-38</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘输入"3"并点击回车</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-39</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘输入"exit"并点击回车</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，输出"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>Input error!
+Please re-enter'</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT-40</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘输入"123456"并点击回车</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>123456</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Input error!
+Please re-enter"</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5993,7 +6346,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\.mm\.dd"/>
     <numFmt numFmtId="178" formatCode="yy\.mm\.dd"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -6122,6 +6475,17 @@
       <name val="宋体"/>
       <family val="1"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -7297,7 +7661,7 @@
       <c r="D11" s="30"/>
       <c r="E11" s="34">
         <f>65535-COUNTBLANK('Test Cases测试用例'!A:A)</f>
-        <v>-983005</v>
+        <v>-983000</v>
       </c>
       <c r="F11" s="35"/>
     </row>
@@ -7617,7 +7981,7 @@
       </c>
       <c r="C32" s="59">
         <f>E11</f>
-        <v>-983005</v>
+        <v>-983000</v>
       </c>
       <c r="D32" s="60"/>
       <c r="E32" s="61"/>
@@ -7642,8 +8006,8 @@
   </sheetPr>
   <dimension ref="A1:EJ12390"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9482,90 +9846,240 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
+    <row r="37" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I37" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="L37" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="O37" s="55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="I38" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="L38" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="O38" s="55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="I39" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="L39" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="N39" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="O39" s="55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="I40" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="L40" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="N40" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="O40" s="55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="I41" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="L41" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="N41" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="O41" s="55" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
@@ -59305,7 +59819,7 @@
   <sheetProtection formatCells="0"/>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 M18 L19 M19 L20 M20 L21 M21 L22 M22 L23 M23 L24 M24 L25 M25 L26 M26 L2:M17 L27:M12390" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:M12390" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Result</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L12391:M65537" xr:uid="{00000000-0002-0000-0100-000001000000}">

--- a/测试用例文档.xlsx
+++ b/测试用例文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TicTacToe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544E9840-C1FC-4D34-9686-04CF6C4B9CD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ECDAAD-45EB-4FFA-8047-0C67B871957E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="250">
   <si>
     <r>
       <rPr>
@@ -5724,7 +5724,7 @@
   </si>
   <si>
     <t>测试第二步玩家下在边上电脑能否返回正常坐标</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5747,7 +5747,7 @@
       </rPr>
       <t>号位置</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5770,96 +5770,85 @@
       </rPr>
       <t>号位置</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>测试第二步玩家下在中央的情况</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>电脑有机会获胜的情况</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>玩家有机会获胜的情况</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UT-26</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UT-27</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UT-28</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UT-29</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UT-30</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UT-31</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UT-32</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UT-33</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UT-34</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UT-35</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Junit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数化测试，使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>System.SetIn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重定向输入流</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>--</t>
-    </r>
+    <t>v2.GameSystem.chooseMode()</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1"</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2"</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3"</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>"exit"</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>"123456"</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5867,14 +5856,19 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>逻辑覆盖</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Junit</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5882,7 +5876,7 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>参数化测试，使用</t>
+      <t>返回</t>
     </r>
     <r>
       <rPr>
@@ -5890,162 +5884,9 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>System.SetIn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重定向输入流</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>逻辑覆盖</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Junit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数化测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>逻辑覆盖</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Junit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数化测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>逻辑覆盖</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2.GameSystem.chooseMode()</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>"exit"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>"123456"</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>返回3</t>
@@ -6086,7 +5927,7 @@
       <t>Input error!
 Please re-enter'</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6133,35 +5974,35 @@
       <t>Input error!
 Please re-enter"</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>曹修远</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UT-36</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>测试模式选择功能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>高</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>键盘输入"1"并点击回车</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6181,27 +6022,27 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>通过</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>等价类测试、逻辑覆盖</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>曹修远</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UT-37</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>键盘输入"2"并点击回车</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6221,27 +6062,27 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UT-38</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>键盘输入"3"并点击回车</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>返回3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UT-39</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>键盘输入"exit"并点击回车</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6279,15 +6120,15 @@
       <t>Input error!
 Please re-enter'</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>UT-40</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>键盘输入"123456"并点击回车</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6334,7 +6175,15 @@
       <t>Input error!
 Please re-enter"</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑覆盖</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定覆盖</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6346,7 +6195,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\.mm\.dd"/>
     <numFmt numFmtId="178" formatCode="yy\.mm\.dd"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -6440,11 +6289,6 @@
       <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -6704,7 +6548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6857,7 +6701,7 @@
     </xf>
     <xf numFmtId="10" fontId="15" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -6878,6 +6722,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7991,7 +7839,7 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="C32:E32"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -8006,8 +7854,8 @@
   </sheetPr>
   <dimension ref="A1:EJ12390"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8238,8 +8086,8 @@
       <c r="L2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>214</v>
+      <c r="M2" s="62" t="s">
+        <v>248</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>63</v>
@@ -8285,8 +8133,8 @@
       <c r="L3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>214</v>
+      <c r="M3" s="62" t="s">
+        <v>248</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>63</v>
@@ -8332,8 +8180,8 @@
       <c r="L4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>215</v>
+      <c r="M4" s="62" t="s">
+        <v>248</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>63</v>
@@ -8379,8 +8227,8 @@
       <c r="L5" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>215</v>
+      <c r="M5" s="62" t="s">
+        <v>248</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>63</v>
@@ -8426,8 +8274,8 @@
       <c r="L6" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="16" t="s">
-        <v>215</v>
+      <c r="M6" s="62" t="s">
+        <v>248</v>
       </c>
       <c r="N6" s="17" t="s">
         <v>63</v>
@@ -8436,7 +8284,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:140" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:140" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -8473,8 +8321,8 @@
       <c r="L7" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="16" t="s">
-        <v>216</v>
+      <c r="M7" s="62" t="s">
+        <v>248</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>63</v>
@@ -8520,8 +8368,8 @@
       <c r="L8" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="16" t="s">
-        <v>217</v>
+      <c r="M8" s="62" t="s">
+        <v>248</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>63</v>
@@ -8567,8 +8415,8 @@
       <c r="L9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="16" t="s">
-        <v>217</v>
+      <c r="M9" s="62" t="s">
+        <v>248</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>63</v>
@@ -8614,8 +8462,8 @@
       <c r="L10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="16" t="s">
-        <v>217</v>
+      <c r="M10" s="62" t="s">
+        <v>248</v>
       </c>
       <c r="N10" s="17" t="s">
         <v>63</v>
@@ -8661,8 +8509,8 @@
       <c r="L11" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="16" t="s">
-        <v>217</v>
+      <c r="M11" s="62" t="s">
+        <v>248</v>
       </c>
       <c r="N11" s="17" t="s">
         <v>63</v>
@@ -8708,8 +8556,8 @@
       <c r="L12" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="16" t="s">
-        <v>215</v>
+      <c r="M12" s="62" t="s">
+        <v>249</v>
       </c>
       <c r="N12" s="17" t="s">
         <v>63</v>
@@ -8755,8 +8603,8 @@
       <c r="L13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="16" t="s">
-        <v>215</v>
+      <c r="M13" s="62" t="s">
+        <v>249</v>
       </c>
       <c r="N13" s="17" t="s">
         <v>63</v>
@@ -8802,8 +8650,8 @@
       <c r="L14" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="16" t="s">
-        <v>215</v>
+      <c r="M14" s="62" t="s">
+        <v>249</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>63</v>
@@ -8849,8 +8697,8 @@
       <c r="L15" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="16" t="s">
-        <v>215</v>
+      <c r="M15" s="62" t="s">
+        <v>249</v>
       </c>
       <c r="N15" s="17" t="s">
         <v>63</v>
@@ -8896,8 +8744,8 @@
       <c r="L16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="16" t="s">
-        <v>215</v>
+      <c r="M16" s="62" t="s">
+        <v>249</v>
       </c>
       <c r="N16" s="17" t="s">
         <v>63</v>
@@ -9848,237 +9696,237 @@
     </row>
     <row r="37" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F37" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="I37" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="L37" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="M37" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H37" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="I37" s="55" t="s">
+      <c r="N37" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="O37" s="55" t="s">
         <v>235</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="L37" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="M37" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="O37" s="55" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F38" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="I38" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="L38" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="M38" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H38" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="I38" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="K38" s="16" t="s">
+      <c r="N38" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="L38" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="M38" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="N38" s="16" t="s">
-        <v>229</v>
-      </c>
       <c r="O38" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F39" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I39" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="L39" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="M39" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H39" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="I39" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="K39" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="L39" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>238</v>
-      </c>
       <c r="N39" s="16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O39" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F40" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="I40" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="L40" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="M40" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H40" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="I40" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="L40" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>238</v>
-      </c>
       <c r="N40" s="16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O40" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I41" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="L41" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="M41" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H41" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="I41" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="L41" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>238</v>
-      </c>
       <c r="N41" s="16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="O41" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -59817,7 +59665,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:M12390" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Result</formula1>
@@ -59936,7 +59784,7 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
